--- a/Supplementary_data/Supplementary_data_1.xlsx
+++ b/Supplementary_data/Supplementary_data_1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzl0084/Documents/Research/Lamellibrachia-genome/Supplementary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F934297D-A55B-5542-B3BE-94A148756BE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310750D1-9F16-9445-9961-F2E5183DF0F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34720" windowHeight="21260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34720" windowHeight="21260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$125</definedName>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="467">
   <si>
     <t>Lamellibrachia</t>
   </si>
@@ -1265,12 +1264,6 @@
     <t xml:space="preserve"> ilvA, tdcB</t>
   </si>
   <si>
-    <t>argG</t>
-  </si>
-  <si>
-    <t>argH</t>
-  </si>
-  <si>
     <t>Arg</t>
   </si>
   <si>
@@ -1283,21 +1276,6 @@
     <t>Tyr</t>
   </si>
   <si>
-    <t>argA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ilvG</t>
-  </si>
-  <si>
-    <t>ilvB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ilvH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ilvA</t>
-  </si>
-  <si>
     <t>leuCD</t>
   </si>
   <si>
@@ -1352,30 +1330,18 @@
     <t>Asn</t>
   </si>
   <si>
-    <t>leuA</t>
-  </si>
-  <si>
-    <t>leuB,</t>
-  </si>
-  <si>
     <t>aroQ</t>
   </si>
   <si>
     <t>metH</t>
   </si>
   <si>
-    <t>serA,</t>
-  </si>
-  <si>
     <t>serB</t>
   </si>
   <si>
     <t>serC1</t>
   </si>
   <si>
-    <t>asnB,</t>
-  </si>
-  <si>
     <t>serA</t>
   </si>
   <si>
@@ -1446,12 +1412,18 @@
   </si>
   <si>
     <t>Capitella teleta</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Present</t>
   </si>
   <si>
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1460,7 +1432,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1469,10 +1441,46 @@
     </r>
   </si>
   <si>
-    <t>Absent</t>
-  </si>
-  <si>
-    <t>Present</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lamellibrachia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> symbiont</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Lamellibrachia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>symbiont</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1524,7 +1532,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Lamellibracchia</t>
+      <t>Lamellibrachia</t>
     </r>
     <r>
       <rPr>
@@ -1536,54 +1544,12 @@
       <t xml:space="preserve"> symbiont</t>
     </r>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lamellibrachia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> symbont</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Lamellibrachia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>symbont</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1601,13 +1567,6 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1649,6 +1608,26 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1737,7 +1716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1752,19 +1731,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1896,7 +1862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1916,93 +1882,79 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2068,7 +2020,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2120,7 +2072,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2325,7 +2277,7 @@
   <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
@@ -4495,2938 +4447,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O147"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:J61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1"/>
-    <col min="4" max="4" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="27" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="27"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="27"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="27"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="27"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="27"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="27"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="27"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="27" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="27"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="27"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="27"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="27"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="27"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="27"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="27"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="27"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="27" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="27"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="27"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="27"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="27"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="27" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="27"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="27"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="27"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="27"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="27" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="L35" s="15"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="27"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="27"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="J37" s="27"/>
-      <c r="K37" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="27"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="J38" s="27"/>
-      <c r="K38" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="J39" s="27"/>
-      <c r="K39" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="L39" s="20"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="27"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="K40" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="L40" s="21"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="27" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="J41" t="s">
-        <v>415</v>
-      </c>
-      <c r="K41" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="L41" s="21"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="27"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="K42" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="L42" s="21"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="27"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="L43" s="21"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="27"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="22"/>
-      <c r="O45" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="J46" t="s">
-        <v>416</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L46" s="20"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="J47" t="s">
-        <v>414</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="22"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="L48" s="20"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="L49" s="20"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="J50" t="s">
-        <v>431</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="22"/>
-      <c r="O50" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="22"/>
-      <c r="O51" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="22"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="J53" t="s">
-        <v>432</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="22"/>
-      <c r="O54" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="J55" t="s">
-        <v>433</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="15"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L56" s="21"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L57" s="20"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L58" s="20"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="J59" t="s">
-        <v>436</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="J60" t="s">
-        <v>438</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="15"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="22"/>
-      <c r="O63" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="22"/>
-      <c r="O64" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B80" s="1">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B86" s="1">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B87" s="1">
-        <v>0</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B88" s="1">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B93" s="1">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B98" s="1">
-        <v>0</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B101" s="1">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B102" s="1">
-        <v>0</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B107" s="1">
-        <v>0</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B115" s="1">
-        <v>0</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B116" s="5">
-        <v>0</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B118" s="1">
-        <v>0</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B119" s="5">
-        <v>0</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B120" s="5">
-        <v>0</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B121" s="5">
-        <v>0</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B122" s="1">
-        <v>0</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B123" s="1">
-        <v>0</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B124" s="1">
-        <v>0</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B125" s="1">
-        <v>0</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="B127" s="1">
-        <v>0</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="B129" s="1">
-        <v>0</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0</v>
-      </c>
-      <c r="D129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="B131" s="4">
-        <v>0</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B132" s="1">
-        <v>0</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="B133" s="1">
-        <v>0</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B134" s="1">
-        <v>0</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="10"/>
-      <c r="B138" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="10"/>
-      <c r="B141" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B143" s="4">
-        <v>0</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B144" s="4">
-        <v>0</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="B145" s="4">
-        <v>0</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="B146" s="1">
-        <v>0</v>
-      </c>
-      <c r="C146" s="1">
-        <v>0</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B147" s="4">
-        <v>0</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF27496A-5B9C-C447-A9BD-140044B63540}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -7441,673 +4474,681 @@
     <col min="22" max="22" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
-        <v>472</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-    </row>
-    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
-        <v>471</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-    </row>
-    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
-        <v>476</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-    </row>
-    <row r="4" spans="1:22" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="33" t="s">
+    <row r="1" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+    </row>
+    <row r="2" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+    </row>
+    <row r="3" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+    </row>
+    <row r="4" spans="1:22" s="17" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="58"/>
+      <c r="B4" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="M4" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="N4" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="O4" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="P4" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="Q4" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="R4" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+    </row>
+    <row r="6" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+    </row>
+    <row r="7" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+    </row>
+    <row r="8" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="27"/>
+    </row>
+    <row r="9" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+    </row>
+    <row r="10" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+    </row>
+    <row r="11" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="T11" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="U11" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="V11" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="L4" s="34" t="s">
+    </row>
+    <row r="12" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="52"/>
+    </row>
+    <row r="13" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+    </row>
+    <row r="14" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+    </row>
+    <row r="15" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="27"/>
+    </row>
+    <row r="16" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
         <v>460</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+    </row>
+    <row r="17" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+    </row>
+    <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="U18" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="V18" s="36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="23" x14ac:dyDescent="0.25">
+      <c r="B19" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="L19" s="54"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="O19" s="55"/>
+      <c r="P19" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q19" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="R19" s="54"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="U19" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+    </row>
+    <row r="21" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="42"/>
+      <c r="C21" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="N4" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>465</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="S4" s="65" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="23" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="66" t="s">
-        <v>469</v>
-      </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-    </row>
-    <row r="8" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
-        <v>472</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="45"/>
-    </row>
-    <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
-        <v>471</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-    </row>
-    <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>477</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-    </row>
-    <row r="11" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>443</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="T11" s="34" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="41" t="s">
         <v>466</v>
       </c>
-      <c r="U11" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="V11" s="35" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="23" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="57" t="s">
-        <v>430</v>
-      </c>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="56"/>
-    </row>
-    <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-    </row>
-    <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-    </row>
-    <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
-        <v>472</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="45"/>
-    </row>
-    <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
-        <v>471</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="45"/>
-    </row>
-    <row r="17" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
-        <v>476</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-    </row>
-    <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B18" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="O18" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q18" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="R18" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="S18" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="T18" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="U18" s="62" t="s">
-        <v>437</v>
-      </c>
-      <c r="V18" s="62" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="23" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60" t="s">
-        <v>416</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="O19" s="59"/>
-      <c r="P19" s="60" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="R19" s="58"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="63" t="s">
-        <v>436</v>
-      </c>
-      <c r="U19" s="64" t="s">
-        <v>438</v>
-      </c>
-      <c r="V19" s="64" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-    </row>
-    <row r="21" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="68"/>
-      <c r="C21" s="67" t="s">
-        <v>474</v>
-      </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67" t="s">
-        <v>473</v>
-      </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="67" t="s">
-        <v>475</v>
-      </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8125,6 +5166,6 @@
     <mergeCell ref="R12:V12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="49" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>